--- a/MainTop/13.08.2024/2 недели макс с 01.08.2024 по 13.08.2024/печать_макс_h1.xlsx
+++ b/MainTop/13.08.2024/2 недели макс с 01.08.2024 по 13.08.2024/печать_макс_h1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -149,36 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">OZN1275573417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Дисней мальчики</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1054600320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Гарри Поттер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1244897302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки белые 30шт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1215540233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Человек-Паук</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1214578624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Хаги Ваги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1235284831</t>
   </si>
 </sst>
 </file>
@@ -310,7 +280,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -588,76 +558,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/MainTop/13.08.2024/2 недели макс с 01.08.2024 по 13.08.2024/печать_макс_h1.xlsx
+++ b/MainTop/13.08.2024/2 недели макс с 01.08.2024 по 13.08.2024/печать_макс_h1.xlsx
@@ -280,7 +280,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
